--- a/ChatGPT/Output/Results.xlsx
+++ b/ChatGPT/Output/Results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,57 +440,167 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>acct_nbr</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>balance</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>account_type</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Balance Total</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45210</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C1881</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>265.4022525382371</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Checking</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>710.7445570332666</v>
+      <c r="D2" s="2" t="n">
+        <v>45209</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45210</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C922</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C782</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>457.145054786315</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C810</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>25.60485797362335</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C766</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CD343</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1530.996443010082</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Saving</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>1454.446620859578</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45210</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="D7" s="2" t="n">
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>S922</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Saving</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SF958</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2318.288728406097</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>2202.374291985792</v>
+      <c r="D9" s="2" t="n">
+        <v>45209</v>
       </c>
     </row>
   </sheetData>
